--- a/output/fit_clients/fit_round_242.xlsx
+++ b/output/fit_clients/fit_round_242.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1951706859.325836</v>
+        <v>1980244738.621529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09241896686306138</v>
+        <v>0.07183190527209962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03530323957002541</v>
+        <v>0.03274759125570842</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>975853418.8404609</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2075673908.90503</v>
+        <v>2624589335.86503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1466226975333266</v>
+        <v>0.1156586428866469</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03402718888823177</v>
+        <v>0.04200600869454278</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1037837006.220234</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4389602583.685786</v>
+        <v>4027940016.764644</v>
       </c>
       <c r="F4" t="n">
-        <v>0.140946622630705</v>
+        <v>0.1306712518172895</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02652241477114696</v>
+        <v>0.03421355495114085</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>88</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2194801333.612548</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3749164442.410023</v>
+        <v>3068541519.525993</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09216009725976322</v>
+        <v>0.07243029358867316</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03331374752336211</v>
+        <v>0.03605681240070823</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>90</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1874582241.457545</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2598844539.530471</v>
+        <v>1847831471.448292</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1212552601379186</v>
+        <v>0.1175167033112055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03579350325352452</v>
+        <v>0.04488905132304828</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1299422234.539792</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2020866040.049571</v>
+        <v>1981690293.901278</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08699969873752117</v>
+        <v>0.1006868280541496</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0322339994659479</v>
+        <v>0.03779443878709338</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>76</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1010433079.169199</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3362324079.511522</v>
+        <v>3021498884.647843</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1468036015628008</v>
+        <v>0.1774368698054462</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03011554020237533</v>
+        <v>0.02286047837889273</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1681162134.295999</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1413934850.063717</v>
+        <v>1714556064.085363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1969327892606417</v>
+        <v>0.1688264819622275</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03633065405839152</v>
+        <v>0.03444615968578588</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>706967532.9383312</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4070606552.617493</v>
+        <v>4630374486.814397</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1435561193576881</v>
+        <v>0.1749319524951677</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03589543217560127</v>
+        <v>0.03596903885807724</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>102</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2035303303.654963</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3920108037.690616</v>
+        <v>2921651761.805569</v>
       </c>
       <c r="F11" t="n">
-        <v>0.158558253995331</v>
+        <v>0.1559847911812367</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04538924761920342</v>
+        <v>0.03220704488374997</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1960054025.94629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2328001968.797042</v>
+        <v>3156559117.527382</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1738318230368986</v>
+        <v>0.1459316431009923</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0512894930759549</v>
+        <v>0.04545243700289153</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1164000940.875827</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5106646729.097909</v>
+        <v>5204521459.565308</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0960682680514105</v>
+        <v>0.09077628308939209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02594065526515903</v>
+        <v>0.02188224027412722</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>81</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2553323363.264048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2869156718.638143</v>
+        <v>3244338868.903039</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1577236953021796</v>
+        <v>0.1240391784495051</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04217716303942031</v>
+        <v>0.02666111452075695</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1434578403.226626</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1544331328.945637</v>
+        <v>1311676356.528314</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1030921942783198</v>
+        <v>0.07961150812538707</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04899476539792076</v>
+        <v>0.0373220056967366</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>772165760.0151379</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2701412128.405832</v>
+        <v>1751047051.021051</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08208711604383949</v>
+        <v>0.1109165430183474</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03531611521808904</v>
+        <v>0.04633983241174169</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1350706077.018307</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5203135743.019258</v>
+        <v>4556399258.752699</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1293316938569415</v>
+        <v>0.1360250056298594</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04135876530117306</v>
+        <v>0.04458865227245196</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>71</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2601567846.650959</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3726040213.582486</v>
+        <v>3440300386.900001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1128136073607244</v>
+        <v>0.1133437483480414</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03126525405573222</v>
+        <v>0.02470651073909593</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1863020084.451195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>899985852.0734655</v>
+        <v>902909041.7323601</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1482314076158742</v>
+        <v>0.1540265418449575</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01681378466731104</v>
+        <v>0.01740745890355152</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>449992930.9139778</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1930460174.367765</v>
+        <v>2546501721.072955</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1615000240463385</v>
+        <v>0.1082983436458014</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02296777279892423</v>
+        <v>0.02901028349031153</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>965230120.9098172</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1862497005.322042</v>
+        <v>2658885930.891053</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07056487847414236</v>
+        <v>0.07446545370334443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0341884722836065</v>
+        <v>0.04578406512287201</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>931248551.7563754</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2439368294.351067</v>
+        <v>4051679098.125251</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1091369789238128</v>
+        <v>0.1192997997840293</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04931411281741788</v>
+        <v>0.05668920968731324</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1219684242.270033</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1365666280.384052</v>
+        <v>986953556.2277958</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1228403653956754</v>
+        <v>0.1793630545650738</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03604710958323555</v>
+        <v>0.05196357636364583</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>682833148.7714617</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3103130164.262046</v>
+        <v>3540592786.23905</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09222447646225697</v>
+        <v>0.1449074754772739</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03685522003637218</v>
+        <v>0.03110769833326051</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>71</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1551565110.408533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1214256050.473751</v>
+        <v>1294586718.235029</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1134310876719796</v>
+        <v>0.1150054696131585</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0192833359452019</v>
+        <v>0.02822124048968353</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>607128039.909083</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>892347911.8981981</v>
+        <v>1042678931.152411</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1122810646511003</v>
+        <v>0.1149615349861962</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03681991110080318</v>
+        <v>0.0298010387732348</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>446173901.6559149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3262777244.202184</v>
+        <v>2872912097.622396</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1439673938288386</v>
+        <v>0.09729814168886482</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0168829571570037</v>
+        <v>0.01967499203726356</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1631388668.840003</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2891737163.635242</v>
+        <v>3629821127.865635</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1296201364244746</v>
+        <v>0.1172169843965061</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04645832525941165</v>
+        <v>0.03386189754268863</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>81</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1445868583.620715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3723645587.350303</v>
+        <v>5336261531.123405</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1235358174846164</v>
+        <v>0.1278089760043319</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03384868327663942</v>
+        <v>0.03857207721618387</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>107</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1861822829.631639</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2061315255.824062</v>
+        <v>1609533376.842809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1372155128496961</v>
+        <v>0.116081482553628</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03526256385533427</v>
+        <v>0.03773593842180153</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1030657672.345402</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1172818679.635123</v>
+        <v>1058818816.547158</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07187701370592307</v>
+        <v>0.1120048155363294</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04775639372376635</v>
+        <v>0.03707647371164732</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>586409297.6740181</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1567358774.768728</v>
+        <v>1479681925.042632</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09686757789926762</v>
+        <v>0.1063265889911576</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03144108355684199</v>
+        <v>0.03760167628574004</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>783679469.6524392</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2050417625.145668</v>
+        <v>2436054378.879195</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2079655926032923</v>
+        <v>0.1786342732229534</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05638818880362189</v>
+        <v>0.05523850171254557</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>73</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1025208889.050941</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1307163368.321732</v>
+        <v>1378629677.140438</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09435997974210909</v>
+        <v>0.08713493771709278</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02516960036456171</v>
+        <v>0.0184274481749061</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>653581671.6347744</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1053260922.195909</v>
+        <v>1335424448.275805</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1070187192523351</v>
+        <v>0.1123115918096467</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03850479111765334</v>
+        <v>0.03210302170772994</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>526630468.0022687</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2368977869.225291</v>
+        <v>2132346018.854952</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1775277460761124</v>
+        <v>0.1714148734070369</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0271620685266811</v>
+        <v>0.02209970251006837</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1184488967.085762</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2737753647.551894</v>
+        <v>2655496827.577854</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1062940669901841</v>
+        <v>0.1070962452485894</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03809460840946618</v>
+        <v>0.03609913965068594</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1368876952.515214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1679980995.160404</v>
+        <v>1733787335.660728</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1221508919751687</v>
+        <v>0.1049947217192521</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02980570241820301</v>
+        <v>0.03397382402891064</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>839990521.4030207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1660799559.98124</v>
+        <v>2216745016.426881</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1734779067582459</v>
+        <v>0.1595619406261798</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03098988647414745</v>
+        <v>0.02463244274770513</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>830399826.036852</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1411271382.675335</v>
+        <v>1190209919.264594</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1313470194876308</v>
+        <v>0.1258938522149096</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04387426206883428</v>
+        <v>0.05296288378997425</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>705635679.7332764</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2552146029.00347</v>
+        <v>2802762008.342189</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1669138672820818</v>
+        <v>0.1570934916722909</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0438930963776625</v>
+        <v>0.0403728992794397</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1276073034.643086</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3421519634.567599</v>
+        <v>3446044363.422427</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08749863009915661</v>
+        <v>0.1207588301844969</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02882675751154143</v>
+        <v>0.03009246444276683</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1710759806.731998</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1998170955.32454</v>
+        <v>2259648862.210957</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1798032650310209</v>
+        <v>0.1834129684255822</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01703510810075868</v>
+        <v>0.02542154103251707</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>84</v>
-      </c>
-      <c r="J43" t="n">
-        <v>999085576.7884499</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1567859210.502414</v>
+        <v>2128510819.42001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08839262958514146</v>
+        <v>0.1004467903994467</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02818517723512938</v>
+        <v>0.03422251176153457</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>783929625.3500855</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2150697629.342686</v>
+        <v>1667927681.472039</v>
       </c>
       <c r="F45" t="n">
-        <v>0.117449781088441</v>
+        <v>0.1457836842604198</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05056013010018821</v>
+        <v>0.03898294217022056</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1075348820.751111</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4447549341.810975</v>
+        <v>5299970258.390415</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1697021755945514</v>
+        <v>0.1740117774317408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0600230011182013</v>
+        <v>0.04866349069355131</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>86</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2223774666.052253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3526485600.339333</v>
+        <v>4055127508.722364</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1458940920307947</v>
+        <v>0.1797879673142473</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04293906075426049</v>
+        <v>0.04124317650341506</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>65</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1763242772.498556</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3031543058.214605</v>
+        <v>4543345502.266974</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08025142507038827</v>
+        <v>0.09079168074126366</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02690437887087094</v>
+        <v>0.0299252057126739</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1515771619.734958</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1196472363.21024</v>
+        <v>1452400169.129933</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1238427898227915</v>
+        <v>0.1487915606951122</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03742898295537235</v>
+        <v>0.0294926502660451</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>598236260.8153797</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2875558015.852364</v>
+        <v>3768796271.023072</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1412438822596449</v>
+        <v>0.1752906547152535</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04129912963405093</v>
+        <v>0.05174611845681882</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>83</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1437779076.588734</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1093156771.885112</v>
+        <v>1173318176.483294</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1754948212933909</v>
+        <v>0.1509027797912234</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04451879054628616</v>
+        <v>0.04101225304790906</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>546578454.8066324</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3422752193.417663</v>
+        <v>3464136052.188571</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09849464074338836</v>
+        <v>0.102441845689874</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05526625987601119</v>
+        <v>0.05275755159450577</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>100</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1711376187.156187</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3654558719.696178</v>
+        <v>2963466410.335115</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1697270503762859</v>
+        <v>0.1298480026105426</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0218253019965976</v>
+        <v>0.03313082329480186</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>70</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1827279347.080622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3217113693.080924</v>
+        <v>4461929320.895564</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1282690751776648</v>
+        <v>0.1153971603456521</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04059163157171849</v>
+        <v>0.04161387955084245</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1608556849.124979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4254738227.982797</v>
+        <v>3755916190.818086</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1982083226164712</v>
+        <v>0.2100062622040997</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02872248934635901</v>
+        <v>0.02804725449708619</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>69</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2127369100.114062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1186366783.31218</v>
+        <v>1817760290.53141</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1154731970750614</v>
+        <v>0.1402611543852226</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03904386813893096</v>
+        <v>0.05000363211364967</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>593183480.3458654</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3186505117.154591</v>
+        <v>3304477427.739213</v>
       </c>
       <c r="F57" t="n">
-        <v>0.132080014242061</v>
+        <v>0.120780010155201</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02527493002107514</v>
+        <v>0.02166207627011392</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>77</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1593252578.630221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1785350058.649989</v>
+        <v>1910600192.508344</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1429642033392936</v>
+        <v>0.1249006427151181</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03103030858628036</v>
+        <v>0.03034844158308065</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>892675034.4261563</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4417273105.686151</v>
+        <v>3848744814.481277</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1272750719675243</v>
+        <v>0.1117837226973968</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0460142680330714</v>
+        <v>0.03835433979551543</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2208636508.657954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3438092218.444211</v>
+        <v>2837243221.443168</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2062760903545921</v>
+        <v>0.1243318759819857</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02027195595071475</v>
+        <v>0.03124744348416957</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1719046225.515249</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2358551966.088994</v>
+        <v>2766644569.263978</v>
       </c>
       <c r="F61" t="n">
-        <v>0.154060739984887</v>
+        <v>0.1352553819115738</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0305893684876669</v>
+        <v>0.02033474455617757</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>83</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1179276023.995527</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1461498986.628187</v>
+        <v>1314070446.450516</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1505369669164041</v>
+        <v>0.1360049893209164</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03395079127272907</v>
+        <v>0.04951870107608038</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>730749470.5957912</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4746385339.160967</v>
+        <v>4574271584.074782</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08554773421465657</v>
+        <v>0.0886932878400354</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04612868025243699</v>
+        <v>0.0372313739251592</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>70</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2373192698.636971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5363441958.598492</v>
+        <v>4010239490.937772</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1195323797456263</v>
+        <v>0.1544506480024281</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03375720082027911</v>
+        <v>0.02392822043930792</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2681721111.05248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4836077462.417363</v>
+        <v>3727595859.84318</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1111362549996741</v>
+        <v>0.1721466531511896</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0273954612088919</v>
+        <v>0.02295042854825815</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>88</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2418038699.894422</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5465109067.371779</v>
+        <v>3756060668.445718</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1286317180962867</v>
+        <v>0.1378657878668423</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0366020017788686</v>
+        <v>0.04299327235325985</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>71</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2732554585.735065</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3309395208.920468</v>
+        <v>2819772970.413968</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0977838565069697</v>
+        <v>0.09878878731176208</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03716181102850095</v>
+        <v>0.04980611692997802</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1654697596.490076</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5120528181.763495</v>
+        <v>4335542447.002701</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1412738708569374</v>
+        <v>0.1180024145978709</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04992269276339481</v>
+        <v>0.04205214034965529</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2560264154.558107</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1654206699.94784</v>
+        <v>2005629246.298848</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1255550244370336</v>
+        <v>0.1185362058595596</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03949157036920705</v>
+        <v>0.05728601320220469</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>827103310.2108573</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3688302494.320727</v>
+        <v>2394194796.745114</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07338617549665259</v>
+        <v>0.06257377058047206</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04267324077649708</v>
+        <v>0.04087658453436841</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>69</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1844151268.915099</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3690217459.628278</v>
+        <v>4218514742.666049</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1661678225960723</v>
+        <v>0.1746631893945082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02647740625482212</v>
+        <v>0.02835713776785332</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>88</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1845108737.701359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1581217126.156157</v>
+        <v>1625751329.639201</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09308438518160546</v>
+        <v>0.08873287227129867</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03350497379762619</v>
+        <v>0.05192931051080182</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>790608576.9678966</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3519809973.602973</v>
+        <v>2959059363.164028</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09502401614299955</v>
+        <v>0.09395712319693594</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0447474024810159</v>
+        <v>0.03875226533921741</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>94</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1759904935.157212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2766853384.044053</v>
+        <v>3008558432.054692</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1354907222819045</v>
+        <v>0.1171275170107024</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03201900531009476</v>
+        <v>0.0263816002627863</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>83</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1383426777.577727</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1717675592.896263</v>
+        <v>1999034088.92374</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1163533461879851</v>
+        <v>0.1635835730058654</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02988172700666125</v>
+        <v>0.02772592441810296</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>858837787.0416764</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3703672541.064033</v>
+        <v>3758514520.134602</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07521996033133292</v>
+        <v>0.09698056261486143</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03345007514596288</v>
+        <v>0.02360874721957381</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>58</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1851836242.814354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2301478643.907084</v>
+        <v>2122322680.298459</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1847799266915001</v>
+        <v>0.1609351701009246</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03064196463593372</v>
+        <v>0.0266295624061439</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1150739428.018872</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3440971924.848788</v>
+        <v>4612882402.039794</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1040193726738443</v>
+        <v>0.1290894137613307</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05714040244097016</v>
+        <v>0.03795480000285434</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>84</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1720485968.159783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1778552222.229007</v>
+        <v>1710219541.339818</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1637559404812658</v>
+        <v>0.1749482592100066</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03277899701617767</v>
+        <v>0.02516692596068899</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>889276194.0436376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5246943916.592994</v>
+        <v>4266400134.955604</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09924619082615196</v>
+        <v>0.1011784302245265</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0283458982739346</v>
+        <v>0.03565264489592593</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>51</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2623472019.767456</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4411135044.331154</v>
+        <v>4904776473.181557</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09303474220014203</v>
+        <v>0.09444961390615988</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02278062930608873</v>
+        <v>0.02458318405376227</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2205567500.607453</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3880387469.431758</v>
+        <v>4057544401.247893</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1949123275390589</v>
+        <v>0.1581294769411042</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02543466153337152</v>
+        <v>0.02315976482661467</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1940193781.136658</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2037992325.71105</v>
+        <v>1960655933.790427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1273679777842962</v>
+        <v>0.0973861883336007</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04309052019773447</v>
+        <v>0.04438603913505945</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1018996152.918165</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2389636213.890459</v>
+        <v>2325419485.153852</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1172859730608953</v>
+        <v>0.08120568034086281</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04971944415525054</v>
+        <v>0.04219091069770084</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1194818054.858478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3220608039.800313</v>
+        <v>2354082736.666677</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1445611657174097</v>
+        <v>0.172363015134875</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03979054083914627</v>
+        <v>0.05203185243621095</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>92</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1610304104.382779</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1915840102.69556</v>
+        <v>2478223990.674808</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1355959145149742</v>
+        <v>0.1285484759313727</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02708599118954022</v>
+        <v>0.02609591792813174</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>957920067.257268</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1498933470.397923</v>
+        <v>1171277843.29935</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1157960680084493</v>
+        <v>0.1158200995856322</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03322346448435878</v>
+        <v>0.03170136651751975</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>749466867.3836313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2440943947.594345</v>
+        <v>3500343969.40846</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1412969107204592</v>
+        <v>0.1205309054430698</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02506590714817963</v>
+        <v>0.03571702471707479</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>96</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1220471948.977313</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2494887688.317801</v>
+        <v>3239412177.747125</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1428417718222976</v>
+        <v>0.1041518104131925</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03451388306962844</v>
+        <v>0.04109934108229475</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1247443919.28411</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1998284589.193993</v>
+        <v>1510811872.905114</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1161532341859484</v>
+        <v>0.1223919213929356</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04414012789498232</v>
+        <v>0.03762820645123123</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>999142364.5210661</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1331696406.764737</v>
+        <v>1589902659.595123</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1620274945913522</v>
+        <v>0.1515691906401941</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04484829580027268</v>
+        <v>0.05683123208510031</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>665848264.7134571</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2803854695.994463</v>
+        <v>2791651626.443968</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1058000651784124</v>
+        <v>0.07277863809746138</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03498545231459747</v>
+        <v>0.0347072668855804</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>61</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1401927354.874803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3170796140.100605</v>
+        <v>4884860582.086959</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1225775035922105</v>
+        <v>0.14244172916671</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0406542754422274</v>
+        <v>0.03518257481604691</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1585398124.289871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1714203168.989203</v>
+        <v>1690619544.31376</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1327546025044829</v>
+        <v>0.1019959182573294</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03506886062604077</v>
+        <v>0.02739169323645865</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>857101545.6421955</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3094775730.287894</v>
+        <v>3182183517.849831</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09963308645276403</v>
+        <v>0.08708543908804413</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04785950595696193</v>
+        <v>0.03784317270199258</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>58</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1547387857.953857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1975554067.15635</v>
+        <v>1653078634.324232</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1320678450390296</v>
+        <v>0.1159174291720763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04268864323308853</v>
+        <v>0.04509999273773166</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>987777023.150345</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4515499923.744013</v>
+        <v>3325664979.84118</v>
       </c>
       <c r="F97" t="n">
-        <v>0.157341376977113</v>
+        <v>0.1451305951279322</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02799211822566547</v>
+        <v>0.0232387298744477</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>80</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2257750059.706344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3922215920.181672</v>
+        <v>3576255283.952714</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08659323068362804</v>
+        <v>0.1170026862643488</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0273096017015844</v>
+        <v>0.02609607015130398</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1961108007.327656</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3154762506.797325</v>
+        <v>2237886261.224342</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09902445144842904</v>
+        <v>0.1300407802274083</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03196038708181874</v>
+        <v>0.0347891744238997</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1577381250.529128</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3798375289.688248</v>
+        <v>3042682493.090829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1417407894465866</v>
+        <v>0.1473206103809016</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02053843512789591</v>
+        <v>0.02002876957120802</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1899187699.417716</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2546208140.168788</v>
+        <v>2855122554.403603</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1773404287808828</v>
+        <v>0.2149579886620222</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03712935303569701</v>
+        <v>0.03614432741714051</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>98</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1273104099.166054</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_242.xlsx
+++ b/output/fit_clients/fit_round_242.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1980244738.621529</v>
+        <v>2517104055.333389</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07183190527209962</v>
+        <v>0.08600723853140801</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03274759125570842</v>
+        <v>0.04397184662759601</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2624589335.86503</v>
+        <v>2577831078.610642</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1156586428866469</v>
+        <v>0.180094726513502</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04200600869454278</v>
+        <v>0.03417076734699919</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4027940016.764644</v>
+        <v>4195226778.84814</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1306712518172895</v>
+        <v>0.1103666135763078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03421355495114085</v>
+        <v>0.0366605301246004</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3068541519.525993</v>
+        <v>3650262814.591613</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07243029358867316</v>
+        <v>0.1019039686324121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03605681240070823</v>
+        <v>0.04236519135210713</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1847831471.448292</v>
+        <v>1984868924.477076</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1175167033112055</v>
+        <v>0.1256334538150172</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04488905132304828</v>
+        <v>0.03783898791538875</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1981690293.901278</v>
+        <v>2219917511.102973</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1006868280541496</v>
+        <v>0.06267638189091625</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03779443878709338</v>
+        <v>0.03487675456698558</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3021498884.647843</v>
+        <v>3001196898.35243</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1774368698054462</v>
+        <v>0.2025904666990747</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02286047837889273</v>
+        <v>0.03026689108844896</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1714556064.085363</v>
+        <v>1799565306.557031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1688264819622275</v>
+        <v>0.1279673288350618</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03444615968578588</v>
+        <v>0.0251360422295701</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4630374486.814397</v>
+        <v>4916251876.772482</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1749319524951677</v>
+        <v>0.1714883704926548</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03596903885807724</v>
+        <v>0.03519167999211109</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2921651761.805569</v>
+        <v>2630098454.836555</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1559847911812367</v>
+        <v>0.1347091038775458</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03220704488374997</v>
+        <v>0.0315064516335093</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3156559117.527382</v>
+        <v>2350427080.114556</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1459316431009923</v>
+        <v>0.1824499156348743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04545243700289153</v>
+        <v>0.05165151163823705</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5204521459.565308</v>
+        <v>4247922102.387064</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09077628308939209</v>
+        <v>0.09066293316180447</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02188224027412722</v>
+        <v>0.02683629488286832</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3244338868.903039</v>
+        <v>3552799268.238492</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1240391784495051</v>
+        <v>0.168018831533909</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02666111452075695</v>
+        <v>0.03721622912380344</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1311676356.528314</v>
+        <v>1684788438.195545</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07961150812538707</v>
+        <v>0.07311810722368177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0373220056967366</v>
+        <v>0.0402232091145148</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1751047051.021051</v>
+        <v>2216581331.253055</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1109165430183474</v>
+        <v>0.1035717043619742</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04633983241174169</v>
+        <v>0.03156426250716799</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4556399258.752699</v>
+        <v>4732609759.011523</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1360250056298594</v>
+        <v>0.1357460414130494</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04458865227245196</v>
+        <v>0.03615772494764427</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3440300386.900001</v>
+        <v>3922177445.504716</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1133437483480414</v>
+        <v>0.1664758546385204</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02470651073909593</v>
+        <v>0.02804650757642871</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>902909041.7323601</v>
+        <v>1197425848.444976</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1540265418449575</v>
+        <v>0.125892439947637</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01740745890355152</v>
+        <v>0.02186108047422317</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2546501721.072955</v>
+        <v>2599683966.695389</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1082983436458014</v>
+        <v>0.1537520696414845</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02901028349031153</v>
+        <v>0.02982507549733007</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2658885930.891053</v>
+        <v>2381933087.035063</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07446545370334443</v>
+        <v>0.06275064504282157</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04578406512287201</v>
+        <v>0.02881882503599452</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4051679098.125251</v>
+        <v>3774215880.371555</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1192997997840293</v>
+        <v>0.08867058566810464</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05668920968731324</v>
+        <v>0.04820312430190414</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>986953556.2277958</v>
+        <v>1275327940.643353</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1793630545650738</v>
+        <v>0.1480701821054392</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05196357636364583</v>
+        <v>0.03736710544733557</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3540592786.23905</v>
+        <v>2534254552.070463</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1449074754772739</v>
+        <v>0.1127531869362541</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03110769833326051</v>
+        <v>0.02453511493236244</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1294586718.235029</v>
+        <v>1382954877.226001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1150054696131585</v>
+        <v>0.1184931741470499</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02822124048968353</v>
+        <v>0.02926887824048871</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1042678931.152411</v>
+        <v>1414680802.442535</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1149615349861962</v>
+        <v>0.07622112666729622</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0298010387732348</v>
+        <v>0.02826809592541759</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2872912097.622396</v>
+        <v>3714221011.863802</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09729814168886482</v>
+        <v>0.1278827001588315</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01967499203726356</v>
+        <v>0.02618013738843673</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3629821127.865635</v>
+        <v>2473761985.677858</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1172169843965061</v>
+        <v>0.1198675705300326</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03386189754268863</v>
+        <v>0.03582276053528041</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5336261531.123405</v>
+        <v>4229427239.8496</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1278089760043319</v>
+        <v>0.114350921249282</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03857207721618387</v>
+        <v>0.04290159795079623</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1609533376.842809</v>
+        <v>1597277551.928942</v>
       </c>
       <c r="F30" t="n">
-        <v>0.116081482553628</v>
+        <v>0.1373652102051677</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03773593842180153</v>
+        <v>0.03846009657444526</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1058818816.547158</v>
+        <v>1124507269.425184</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1120048155363294</v>
+        <v>0.07236610115903079</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03707647371164732</v>
+        <v>0.0480884551556258</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1479681925.042632</v>
+        <v>1211755170.74592</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1063265889911576</v>
+        <v>0.08972164598770961</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03760167628574004</v>
+        <v>0.02427877212300925</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2436054378.879195</v>
+        <v>2945179927.563617</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1786342732229534</v>
+        <v>0.1537720539917374</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05523850171254557</v>
+        <v>0.03755107257684058</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1378629677.140438</v>
+        <v>988681772.8882519</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08713493771709278</v>
+        <v>0.1191445229380541</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0184274481749061</v>
+        <v>0.02486906713350759</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1335424448.275805</v>
+        <v>1035362011.438099</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1123115918096467</v>
+        <v>0.09151722402674499</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03210302170772994</v>
+        <v>0.03261497437506629</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2132346018.854952</v>
+        <v>3084733319.165247</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1714148734070369</v>
+        <v>0.1540459698667843</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02209970251006837</v>
+        <v>0.02345353631776173</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2655496827.577854</v>
+        <v>1817767099.907971</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1070962452485894</v>
+        <v>0.1076679229499125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03609913965068594</v>
+        <v>0.03691231892040232</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1733787335.660728</v>
+        <v>1786318334.013406</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1049947217192521</v>
+        <v>0.1053221727682665</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03397382402891064</v>
+        <v>0.02612981749890152</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2216745016.426881</v>
+        <v>1796193697.140326</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1595619406261798</v>
+        <v>0.1870129126427107</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02463244274770513</v>
+        <v>0.024587852155558</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1190209919.264594</v>
+        <v>1439047461.445108</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1258938522149096</v>
+        <v>0.09813017373802509</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05296288378997425</v>
+        <v>0.04057915479556395</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2802762008.342189</v>
+        <v>2121081042.196382</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1570934916722909</v>
+        <v>0.1570478931813286</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0403728992794397</v>
+        <v>0.04344447764574478</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3446044363.422427</v>
+        <v>2795264963.351389</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1207588301844969</v>
+        <v>0.07723978917196675</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03009246444276683</v>
+        <v>0.03896905927371231</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2259648862.210957</v>
+        <v>1950342326.636884</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1834129684255822</v>
+        <v>0.1631046379332957</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02542154103251707</v>
+        <v>0.02138166028070768</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2128510819.42001</v>
+        <v>1999604707.461267</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1004467903994467</v>
+        <v>0.06379028427285867</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03422251176153457</v>
+        <v>0.03068071019484008</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1667927681.472039</v>
+        <v>2202051829.217647</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1457836842604198</v>
+        <v>0.1744420821307714</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03898294217022056</v>
+        <v>0.04626769588194515</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5299970258.390415</v>
+        <v>4718310388.866714</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1740117774317408</v>
+        <v>0.1664518409277761</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04866349069355131</v>
+        <v>0.0514175705766218</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4055127508.722364</v>
+        <v>3742952089.597034</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1797879673142473</v>
+        <v>0.1365550475270325</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04124317650341506</v>
+        <v>0.05488725371665234</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4543345502.266974</v>
+        <v>2869701733.257509</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09079168074126366</v>
+        <v>0.09728940985445909</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0299252057126739</v>
+        <v>0.02959674081078053</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1452400169.129933</v>
+        <v>1856472284.447502</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1487915606951122</v>
+        <v>0.1675329931587645</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0294926502660451</v>
+        <v>0.04392027351149012</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3768796271.023072</v>
+        <v>4187816659.039293</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1752906547152535</v>
+        <v>0.1644710647393882</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05174611845681882</v>
+        <v>0.03429413261568606</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1173318176.483294</v>
+        <v>1365737382.320745</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1509027797912234</v>
+        <v>0.1298486376564306</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04101225304790906</v>
+        <v>0.03572745083676463</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3464136052.188571</v>
+        <v>3189003245.193597</v>
       </c>
       <c r="F52" t="n">
-        <v>0.102441845689874</v>
+        <v>0.09766967527363039</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05275755159450577</v>
+        <v>0.06090914422713566</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2963466410.335115</v>
+        <v>2578687655.251135</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1298480026105426</v>
+        <v>0.1543751459238674</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03313082329480186</v>
+        <v>0.03004462374156196</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4461929320.895564</v>
+        <v>4093042804.886971</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1153971603456521</v>
+        <v>0.1255247253476588</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04161387955084245</v>
+        <v>0.036586919033143</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3755916190.818086</v>
+        <v>3285488323.291151</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2100062622040997</v>
+        <v>0.1388531313064837</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02804725449708619</v>
+        <v>0.02493751647385689</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1817760290.53141</v>
+        <v>1148549604.973338</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1402611543852226</v>
+        <v>0.1302474494722649</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05000363211364967</v>
+        <v>0.03743459883050375</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3304477427.739213</v>
+        <v>3338904620.024119</v>
       </c>
       <c r="F57" t="n">
-        <v>0.120780010155201</v>
+        <v>0.1120862065391586</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02166207627011392</v>
+        <v>0.0262304549538582</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1910600192.508344</v>
+        <v>1847132654.59156</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1249006427151181</v>
+        <v>0.143901606678858</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03034844158308065</v>
+        <v>0.03449544280143185</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3848744814.481277</v>
+        <v>4201600079.093439</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1117837226973968</v>
+        <v>0.08256589610906769</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03835433979551543</v>
+        <v>0.03066579652926507</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2837243221.443168</v>
+        <v>3217171818.313731</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1243318759819857</v>
+        <v>0.1495572076574893</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03124744348416957</v>
+        <v>0.02422008133015287</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2766644569.263978</v>
+        <v>2325117705.926717</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1352553819115738</v>
+        <v>0.1705048699280465</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02033474455617757</v>
+        <v>0.03175058734822737</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1314070446.450516</v>
+        <v>1623889344.702546</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1360049893209164</v>
+        <v>0.1884038614268488</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04951870107608038</v>
+        <v>0.04061722342773214</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4574271584.074782</v>
+        <v>4540543387.880009</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0886932878400354</v>
+        <v>0.08819665412145215</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0372313739251592</v>
+        <v>0.04064059474559051</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4010239490.937772</v>
+        <v>3927114123.403137</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544506480024281</v>
+        <v>0.1918744091825248</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02392822043930792</v>
+        <v>0.03308156633880951</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3727595859.84318</v>
+        <v>5340501422.11093</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1721466531511896</v>
+        <v>0.1566664537615843</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02295042854825815</v>
+        <v>0.03099195453098445</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3756060668.445718</v>
+        <v>4065329400.971307</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1378657878668423</v>
+        <v>0.1131575870186009</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04299327235325985</v>
+        <v>0.03822492458994073</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2819772970.413968</v>
+        <v>2318284218.582741</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09878878731176208</v>
+        <v>0.093689055833892</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04980611692997802</v>
+        <v>0.0340816815291124</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4335542447.002701</v>
+        <v>3925694078.628949</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1180024145978709</v>
+        <v>0.1385781736493209</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04205214034965529</v>
+        <v>0.03891177117855837</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2005629246.298848</v>
+        <v>1637645543.291567</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1185362058595596</v>
+        <v>0.1338589597602212</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05728601320220469</v>
+        <v>0.05765177841094056</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2394194796.745114</v>
+        <v>2647453138.032826</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06257377058047206</v>
+        <v>0.08795730372200315</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04087658453436841</v>
+        <v>0.04858005301419581</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4218514742.666049</v>
+        <v>3537363017.60943</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1746631893945082</v>
+        <v>0.1329090563887689</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02835713776785332</v>
+        <v>0.03162494258242123</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1625751329.639201</v>
+        <v>2246186490.418271</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08873287227129867</v>
+        <v>0.1049647973726951</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05192931051080182</v>
+        <v>0.03964426095211886</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2959059363.164028</v>
+        <v>3282741325.391526</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09395712319693594</v>
+        <v>0.07391812745901997</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03875226533921741</v>
+        <v>0.04451688452032847</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3008558432.054692</v>
+        <v>2949737453.525317</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1171275170107024</v>
+        <v>0.1493797509712563</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0263816002627863</v>
+        <v>0.03004011288767632</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1999034088.92374</v>
+        <v>2410655613.468981</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1635835730058654</v>
+        <v>0.1587185562064378</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02772592441810296</v>
+        <v>0.03252126509452934</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3758514520.134602</v>
+        <v>4110851225.297239</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09698056261486143</v>
+        <v>0.0885590928605634</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02360874721957381</v>
+        <v>0.02797533135555935</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2122322680.298459</v>
+        <v>1992182719.24259</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1609351701009246</v>
+        <v>0.1557374325304337</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0266295624061439</v>
+        <v>0.03119026641540164</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4612882402.039794</v>
+        <v>4266722708.731276</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1290894137613307</v>
+        <v>0.1317410280969173</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03795480000285434</v>
+        <v>0.04996914811896018</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1710219541.339818</v>
+        <v>1920575403.034662</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1749482592100066</v>
+        <v>0.1585483985229561</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02516692596068899</v>
+        <v>0.03320865681142693</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4266400134.955604</v>
+        <v>4844569073.936251</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1011784302245265</v>
+        <v>0.1023935308367135</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03565264489592593</v>
+        <v>0.03513732911867193</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4904776473.181557</v>
+        <v>3269555608.641252</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09444961390615988</v>
+        <v>0.1347845416670865</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02458318405376227</v>
+        <v>0.0253614242140937</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4057544401.247893</v>
+        <v>5353793623.277997</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1581294769411042</v>
+        <v>0.1987550926365607</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02315976482661467</v>
+        <v>0.02332367930233517</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1960655933.790427</v>
+        <v>1832986527.570687</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0973861883336007</v>
+        <v>0.09689371282078346</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04438603913505945</v>
+        <v>0.04263725538803457</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2325419485.153852</v>
+        <v>2222348662.196648</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08120568034086281</v>
+        <v>0.09597362933007617</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04219091069770084</v>
+        <v>0.03774630156314013</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2354082736.666677</v>
+        <v>3055877802.644993</v>
       </c>
       <c r="F85" t="n">
-        <v>0.172363015134875</v>
+        <v>0.1186188748026548</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05203185243621095</v>
+        <v>0.03888075509999739</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2478223990.674808</v>
+        <v>2483723581.55749</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1285484759313727</v>
+        <v>0.1497993271521954</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02609591792813174</v>
+        <v>0.02033123130284142</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1171277843.29935</v>
+        <v>993461248.1798841</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1158200995856322</v>
+        <v>0.1851794256248784</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03170136651751975</v>
+        <v>0.03942978635911913</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3500343969.40846</v>
+        <v>2536770557.99604</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1205309054430698</v>
+        <v>0.110821767599157</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03571702471707479</v>
+        <v>0.03552797932981328</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3239412177.747125</v>
+        <v>2356645467.12113</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1041518104131925</v>
+        <v>0.1169117636312877</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04109934108229475</v>
+        <v>0.04078644917291056</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1510811872.905114</v>
+        <v>1714698434.024282</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1223919213929356</v>
+        <v>0.1227310288434412</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03762820645123123</v>
+        <v>0.04062120748680287</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1589902659.595123</v>
+        <v>1305103167.178347</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1515691906401941</v>
+        <v>0.1213434327155101</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05683123208510031</v>
+        <v>0.05080664011493171</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2791651626.443968</v>
+        <v>2556128705.057278</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07277863809746138</v>
+        <v>0.09765438674169921</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0347072668855804</v>
+        <v>0.03284825597297152</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4884860582.086959</v>
+        <v>4139124364.896107</v>
       </c>
       <c r="F93" t="n">
-        <v>0.14244172916671</v>
+        <v>0.118822500119739</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03518257481604691</v>
+        <v>0.04989066748872368</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1690619544.31376</v>
+        <v>2509789746.454752</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1019959182573294</v>
+        <v>0.1030891293757759</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02739169323645865</v>
+        <v>0.03376083997690132</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3182183517.849831</v>
+        <v>2340690608.314568</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08708543908804413</v>
+        <v>0.1349246961149888</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03784317270199258</v>
+        <v>0.04160478759952598</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1653078634.324232</v>
+        <v>1931232615.134964</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1159174291720763</v>
+        <v>0.1261935651173778</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04509999273773166</v>
+        <v>0.03330050947068817</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3325664979.84118</v>
+        <v>3621712007.292622</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1451305951279322</v>
+        <v>0.1727174074575346</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0232387298744477</v>
+        <v>0.02731619422330144</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3576255283.952714</v>
+        <v>2865645415.791749</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1170026862643488</v>
+        <v>0.09051708615871482</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02609607015130398</v>
+        <v>0.03247782875055687</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2237886261.224342</v>
+        <v>3192826424.063637</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1300407802274083</v>
+        <v>0.1255503662891632</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0347891744238997</v>
+        <v>0.02248772040870885</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3042682493.090829</v>
+        <v>3396500003.32973</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1473206103809016</v>
+        <v>0.178751523378099</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02002876957120802</v>
+        <v>0.02655827327486574</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2855122554.403603</v>
+        <v>2658298988.770715</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2149579886620222</v>
+        <v>0.1398158092102261</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03614432741714051</v>
+        <v>0.05373305791901973</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_242.xlsx
+++ b/output/fit_clients/fit_round_242.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2517104055.333389</v>
+        <v>1955884111.645315</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08600723853140801</v>
+        <v>0.08589793053347908</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04397184662759601</v>
+        <v>0.03513571870331472</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2577831078.610642</v>
+        <v>1967323865.385493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.180094726513502</v>
+        <v>0.1408620051496623</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03417076734699919</v>
+        <v>0.04811221666315409</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4195226778.84814</v>
+        <v>4814145149.76751</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1103666135763078</v>
+        <v>0.1098055898836456</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0366605301246004</v>
+        <v>0.03158489331013615</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>131</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241</v>
+      </c>
+      <c r="K4" t="n">
+        <v>103.16532591472</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3650262814.591613</v>
+        <v>4002123736.703025</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1019039686324121</v>
+        <v>0.09342089483460264</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04236519135210713</v>
+        <v>0.0431306165327604</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>98</v>
+      </c>
+      <c r="J5" t="n">
+        <v>242</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1984868924.477076</v>
+        <v>1917946541.012187</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1256334538150172</v>
+        <v>0.1399277347893151</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03783898791538875</v>
+        <v>0.04885678351094776</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2219917511.102973</v>
+        <v>2968286106.055212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06267638189091625</v>
+        <v>0.08585185097023201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03487675456698558</v>
+        <v>0.03831789491137202</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3001196898.35243</v>
+        <v>2512864425.520803</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2025904666990747</v>
+        <v>0.2210266664615124</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03026689108844896</v>
+        <v>0.02381507913024178</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1799565306.557031</v>
+        <v>1744718818.375248</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1279673288350618</v>
+        <v>0.1224979720112835</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0251360422295701</v>
+        <v>0.02587694006672056</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4916251876.772482</v>
+        <v>5588331908.087899</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1714883704926548</v>
+        <v>0.1490953454041828</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03519167999211109</v>
+        <v>0.03307762471310683</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>221</v>
+      </c>
+      <c r="J10" t="n">
+        <v>242</v>
+      </c>
+      <c r="K10" t="n">
+        <v>110.3445020768031</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2630098454.836555</v>
+        <v>4287565106.778562</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1347091038775458</v>
+        <v>0.1873461966311738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0315064516335093</v>
+        <v>0.04281419028647333</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" t="n">
+        <v>242</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2350427080.114556</v>
+        <v>3114872051.483454</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1824499156348743</v>
+        <v>0.1554130554812342</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05165151163823705</v>
+        <v>0.05239078163389915</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4247922102.387064</v>
+        <v>4425288221.493935</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09066293316180447</v>
+        <v>0.09901215721966983</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02683629488286832</v>
+        <v>0.03032195466164025</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>122</v>
+      </c>
+      <c r="J13" t="n">
+        <v>242</v>
+      </c>
+      <c r="K13" t="n">
+        <v>105.9219566107773</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3552799268.238492</v>
+        <v>2840439154.137302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.168018831533909</v>
+        <v>0.1303222722448149</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03721622912380344</v>
+        <v>0.03670324841851712</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>239</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1684788438.195545</v>
+        <v>1158988749.556534</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07311810722368177</v>
+        <v>0.08313465284733336</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0402232091145148</v>
+        <v>0.03582154934284336</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2216581331.253055</v>
+        <v>2865013077.231862</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035717043619742</v>
+        <v>0.08046826847204248</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03156426250716799</v>
+        <v>0.03243267601329133</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4732609759.011523</v>
+        <v>4173802400.396038</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1357460414130494</v>
+        <v>0.1509820986741524</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03615772494764427</v>
+        <v>0.05089479237188516</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>116</v>
+      </c>
+      <c r="J17" t="n">
+        <v>242</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1061,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3922177445.504716</v>
+        <v>2928506773.113781</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1664758546385204</v>
+        <v>0.1740055892062438</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02804650757642871</v>
+        <v>0.03270240108079586</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>60</v>
+      </c>
+      <c r="J18" t="n">
+        <v>241</v>
+      </c>
+      <c r="K18" t="n">
+        <v>52.91146286574518</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1197425848.444976</v>
+        <v>1126616457.463296</v>
       </c>
       <c r="F19" t="n">
-        <v>0.125892439947637</v>
+        <v>0.1199517232339464</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02186108047422317</v>
+        <v>0.02005458783453088</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2599683966.695389</v>
+        <v>2522500585.01601</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1537520696414845</v>
+        <v>0.1095424628145399</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02982507549733007</v>
+        <v>0.02549626297178928</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2381933087.035063</v>
+        <v>2393624247.090072</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06275064504282157</v>
+        <v>0.09632873746777629</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02881882503599452</v>
+        <v>0.03582471648431063</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3774215880.371555</v>
+        <v>3111505087.290259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08867058566810464</v>
+        <v>0.1437950570955929</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04820312430190414</v>
+        <v>0.05145942860176719</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>62</v>
+      </c>
+      <c r="J22" t="n">
+        <v>239</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1275327940.643353</v>
+        <v>1241080268.777426</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1480701821054392</v>
+        <v>0.1449233177192158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03736710544733557</v>
+        <v>0.04140324088834526</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1279,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2534254552.070463</v>
+        <v>2777288872.473208</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1127531869362541</v>
+        <v>0.1174487399141404</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02453511493236244</v>
+        <v>0.02285906492516321</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1382954877.226001</v>
+        <v>1413269176.138847</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1184931741470499</v>
+        <v>0.09276177613532396</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02926887824048871</v>
+        <v>0.02802877796407783</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1414680802.442535</v>
+        <v>1421004678.09729</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07622112666729622</v>
+        <v>0.1222963447584811</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02826809592541759</v>
+        <v>0.02428653751559889</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3714221011.863802</v>
+        <v>4353027072.334079</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1278827001588315</v>
+        <v>0.100871979231961</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02618013738843673</v>
+        <v>0.0176378778705569</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>98</v>
+      </c>
+      <c r="J27" t="n">
+        <v>242</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2473761985.677858</v>
+        <v>3294511862.848665</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1198675705300326</v>
+        <v>0.09475723869993313</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03582276053528041</v>
+        <v>0.03748882694990609</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4229427239.8496</v>
+        <v>4919044884.086931</v>
       </c>
       <c r="F29" t="n">
-        <v>0.114350921249282</v>
+        <v>0.1175676031489919</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04290159795079623</v>
+        <v>0.02916420973080445</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>230</v>
+      </c>
+      <c r="J29" t="n">
+        <v>242</v>
+      </c>
+      <c r="K29" t="n">
+        <v>113.4640551126974</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1597277551.928942</v>
+        <v>1838968249.03581</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1373652102051677</v>
+        <v>0.08646838250351825</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03846009657444526</v>
+        <v>0.0365868382785685</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1526,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1124507269.425184</v>
+        <v>1010762875.178525</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07236610115903079</v>
+        <v>0.08019305578790016</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0480884551556258</v>
+        <v>0.03577201505038924</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1211755170.74592</v>
+        <v>1379165468.80496</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08972164598770961</v>
+        <v>0.07332920269643595</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02427877212300925</v>
+        <v>0.02800187329120525</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2945179927.563617</v>
+        <v>2965770145.111292</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1537720539917374</v>
+        <v>0.1767056713922067</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03755107257684058</v>
+        <v>0.0572448560613143</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>988681772.8882519</v>
+        <v>1278742148.239694</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1191445229380541</v>
+        <v>0.1149866409356979</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02486906713350759</v>
+        <v>0.02561519927877586</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1035362011.438099</v>
+        <v>1351075681.615079</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09151722402674499</v>
+        <v>0.0766940739887893</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03261497437506629</v>
+        <v>0.04492266980907657</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3084733319.165247</v>
+        <v>2692910529.126884</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1540459698667843</v>
+        <v>0.1104081732568997</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02345353631776173</v>
+        <v>0.02280236175503077</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1817767099.907971</v>
+        <v>1938991340.984164</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1076679229499125</v>
+        <v>0.06806762362310108</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03691231892040232</v>
+        <v>0.04048933645662934</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1786318334.013406</v>
+        <v>1981084045.574886</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1053221727682665</v>
+        <v>0.09562225029201828</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02612981749890152</v>
+        <v>0.02626491113767654</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1796193697.140326</v>
+        <v>1482759181.686566</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1870129126427107</v>
+        <v>0.1352843402390142</v>
       </c>
       <c r="G39" t="n">
-        <v>0.024587852155558</v>
+        <v>0.02253447618055476</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1439047461.445108</v>
+        <v>1112169375.245748</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09813017373802509</v>
+        <v>0.1077831342394144</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04057915479556395</v>
+        <v>0.04003815850193348</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2121081042.196382</v>
+        <v>2782039565.10446</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1570478931813286</v>
+        <v>0.1034861765223406</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04344447764574478</v>
+        <v>0.02959997794923361</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1911,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2795264963.351389</v>
+        <v>3568925597.884787</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07723978917196675</v>
+        <v>0.1059575251750874</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03896905927371231</v>
+        <v>0.02941136128046693</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" t="n">
+        <v>241</v>
+      </c>
+      <c r="K42" t="n">
+        <v>80.35056643671217</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1950342326.636884</v>
+        <v>2779640456.103163</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1631046379332957</v>
+        <v>0.1855613833871805</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02138166028070768</v>
+        <v>0.02482891216003848</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1999604707.461267</v>
+        <v>2245602591.598186</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06379028427285867</v>
+        <v>0.06524199886082055</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03068071019484008</v>
+        <v>0.02484431199934225</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2202051829.217647</v>
+        <v>1861198582.570804</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1744420821307714</v>
+        <v>0.1463550473494627</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04626769588194515</v>
+        <v>0.03384618034734019</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4718310388.866714</v>
+        <v>4918531474.67502</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1664518409277761</v>
+        <v>0.1146464148498027</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0514175705766218</v>
+        <v>0.05594844939012938</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>139</v>
+      </c>
+      <c r="J46" t="n">
+        <v>242</v>
+      </c>
+      <c r="K46" t="n">
+        <v>106.8638413095132</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3742952089.597034</v>
+        <v>3728996957.071714</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1365550475270325</v>
+        <v>0.1227597313307266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05488725371665234</v>
+        <v>0.04736326652412003</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>108</v>
+      </c>
+      <c r="J47" t="n">
+        <v>242</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2869701733.257509</v>
+        <v>3486418196.529177</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09728940985445909</v>
+        <v>0.09151221537515819</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02959674081078053</v>
+        <v>0.03319740674894875</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>121</v>
+      </c>
+      <c r="J48" t="n">
+        <v>241</v>
+      </c>
+      <c r="K48" t="n">
+        <v>75.81723428848224</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1856472284.447502</v>
+        <v>1393642349.253058</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1675329931587645</v>
+        <v>0.1339268694326376</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04392027351149012</v>
+        <v>0.03070527305436271</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4187816659.039293</v>
+        <v>2689138145.243041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1644710647393882</v>
+        <v>0.1621812322730517</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03429413261568606</v>
+        <v>0.05199107537124183</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>79</v>
+      </c>
+      <c r="J50" t="n">
+        <v>241</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44.33661536209767</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1365737382.320745</v>
+        <v>955412562.2309364</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1298486376564306</v>
+        <v>0.1726879945599599</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03572745083676463</v>
+        <v>0.05335356167188217</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3189003245.193597</v>
+        <v>5148876490.405724</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09766967527363039</v>
+        <v>0.116137325552468</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06090914422713566</v>
+        <v>0.04771599196796246</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>157</v>
+      </c>
+      <c r="J52" t="n">
+        <v>241</v>
+      </c>
+      <c r="K52" t="n">
+        <v>103.619651863442</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2306,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2578687655.251135</v>
+        <v>3323395538.005558</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1543751459238674</v>
+        <v>0.1471484393036732</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03004462374156196</v>
+        <v>0.03552759190404595</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2341,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4093042804.886971</v>
+        <v>4791517422.052892</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1255247253476588</v>
+        <v>0.1388385635834333</v>
       </c>
       <c r="G54" t="n">
-        <v>0.036586919033143</v>
+        <v>0.048635621021299</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>128</v>
+      </c>
+      <c r="J54" t="n">
+        <v>242</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3285488323.291151</v>
+        <v>4958461652.586426</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1388531313064837</v>
+        <v>0.2040827006100963</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02493751647385689</v>
+        <v>0.02620329286557403</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>108</v>
+      </c>
+      <c r="J55" t="n">
+        <v>242</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1148549604.973338</v>
+        <v>1771774674.296883</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1302474494722649</v>
+        <v>0.118946337015387</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03743459883050375</v>
+        <v>0.05310647515470405</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3338904620.024119</v>
+        <v>3055809054.280022</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1120862065391586</v>
+        <v>0.1642129160156157</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0262304549538582</v>
+        <v>0.02120550372137715</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>95</v>
+      </c>
+      <c r="J57" t="n">
+        <v>240</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1847132654.59156</v>
+        <v>1438209634.700935</v>
       </c>
       <c r="F58" t="n">
-        <v>0.143901606678858</v>
+        <v>0.1500186364914218</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03449544280143185</v>
+        <v>0.03274248649076592</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4201600079.093439</v>
+        <v>5225104070.906793</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08256589610906769</v>
+        <v>0.1194990850588494</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03066579652926507</v>
+        <v>0.04035686256877008</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>117</v>
+      </c>
+      <c r="J59" t="n">
+        <v>241</v>
+      </c>
+      <c r="K59" t="n">
+        <v>96.32259296812978</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3217171818.313731</v>
+        <v>3169026262.311416</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1495572076574893</v>
+        <v>0.129623108629817</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02422008133015287</v>
+        <v>0.03078097880760974</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>240</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2325117705.926717</v>
+        <v>2585545385.575721</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1705048699280465</v>
+        <v>0.1706607946390293</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03175058734822737</v>
+        <v>0.02207635870264573</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1623889344.702546</v>
+        <v>1738809722.604241</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1884038614268488</v>
+        <v>0.1550539495000717</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04061722342773214</v>
+        <v>0.03288927979382467</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4540543387.880009</v>
+        <v>4277901875.661093</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08819665412145215</v>
+        <v>0.08282438551871321</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04064059474559051</v>
+        <v>0.03273973511099346</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>118</v>
+      </c>
+      <c r="J63" t="n">
+        <v>241</v>
+      </c>
+      <c r="K63" t="n">
+        <v>100.2305942313284</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3927114123.403137</v>
+        <v>3661062255.919278</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1918744091825248</v>
+        <v>0.1785116909619165</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03308156633880951</v>
+        <v>0.03161698448671987</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>119</v>
+      </c>
+      <c r="J64" t="n">
+        <v>242</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5340501422.11093</v>
+        <v>4171141861.637526</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1566664537615843</v>
+        <v>0.1194278120223685</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03099195453098445</v>
+        <v>0.02138079374625504</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>194</v>
+      </c>
+      <c r="J65" t="n">
+        <v>241</v>
+      </c>
+      <c r="K65" t="n">
+        <v>105.0287637090118</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4065329400.971307</v>
+        <v>4928059866.155822</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1131575870186009</v>
+        <v>0.1518336129567547</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03822492458994073</v>
+        <v>0.03328426899166865</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>119</v>
+      </c>
+      <c r="J66" t="n">
+        <v>242</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2318284218.582741</v>
+        <v>2455997964.948717</v>
       </c>
       <c r="F67" t="n">
-        <v>0.093689055833892</v>
+        <v>0.1006007734020071</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0340816815291124</v>
+        <v>0.0496182044455071</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3925694078.628949</v>
+        <v>6046471564.420589</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1385781736493209</v>
+        <v>0.1552940629507756</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03891177117855837</v>
+        <v>0.03790319984550797</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>122</v>
+      </c>
+      <c r="J68" t="n">
+        <v>242</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1637645543.291567</v>
+        <v>1605125435.345181</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1338589597602212</v>
+        <v>0.1287175699846749</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05765177841094056</v>
+        <v>0.038813235391295</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2647453138.032826</v>
+        <v>3271155004.021264</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08795730372200315</v>
+        <v>0.09291347806695423</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04858005301419581</v>
+        <v>0.03161750566149556</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>38</v>
+      </c>
+      <c r="J70" t="n">
+        <v>240</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3537363017.60943</v>
+        <v>4631447397.052244</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1329090563887689</v>
+        <v>0.1204193079404614</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03162494258242123</v>
+        <v>0.02648145905744771</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>182</v>
+      </c>
+      <c r="J71" t="n">
+        <v>242</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2246186490.418271</v>
+        <v>1640512786.560311</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1049647973726951</v>
+        <v>0.07783108467397144</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03964426095211886</v>
+        <v>0.03216633548571586</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3282741325.391526</v>
+        <v>3496341664.480155</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07391812745901997</v>
+        <v>0.08069906438556183</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04451688452032847</v>
+        <v>0.03191929028732847</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2949737453.525317</v>
+        <v>3286170761.758762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1493797509712563</v>
+        <v>0.1471852662246662</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03004011288767632</v>
+        <v>0.03123699477415384</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="n">
+        <v>68.58922530258231</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2410655613.468981</v>
+        <v>2330837172.46742</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1587185562064378</v>
+        <v>0.1130750266198082</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03252126509452934</v>
+        <v>0.03403903511152925</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4110851225.297239</v>
+        <v>4711105860.144271</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0885590928605634</v>
+        <v>0.09679045595582193</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02797533135555935</v>
+        <v>0.02734459789434596</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>112</v>
+      </c>
+      <c r="J76" t="n">
+        <v>242</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1992182719.24259</v>
+        <v>2228820633.965683</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1557374325304337</v>
+        <v>0.154770429072853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03119026641540164</v>
+        <v>0.02231480675670629</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4266722708.731276</v>
+        <v>4218514924.657088</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1317410280969173</v>
+        <v>0.08967024137177369</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04996914811896018</v>
+        <v>0.05614971329202856</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>120</v>
+      </c>
+      <c r="J78" t="n">
+        <v>242</v>
+      </c>
+      <c r="K78" t="n">
+        <v>107.043978026153</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1920575403.034662</v>
+        <v>1641149448.312469</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1585483985229561</v>
+        <v>0.1382538859722862</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03320865681142693</v>
+        <v>0.03977556007853555</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4844569073.936251</v>
+        <v>4215455965.50596</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1023935308367135</v>
+        <v>0.07552667601843208</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03513732911867193</v>
+        <v>0.02491543718478492</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>118</v>
+      </c>
+      <c r="J80" t="n">
+        <v>241</v>
+      </c>
+      <c r="K80" t="n">
+        <v>77.54684635980203</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3269555608.641252</v>
+        <v>4498260920.928979</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1347845416670865</v>
+        <v>0.1220659645975</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0253614242140937</v>
+        <v>0.02610795735781795</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>111</v>
+      </c>
+      <c r="J81" t="n">
+        <v>242</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5353793623.277997</v>
+        <v>5286896649.763796</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1987550926365607</v>
+        <v>0.1702528001349092</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02332367930233517</v>
+        <v>0.01783618958345412</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>183</v>
+      </c>
+      <c r="J82" t="n">
+        <v>241</v>
+      </c>
+      <c r="K82" t="n">
+        <v>105.9126188788462</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3370,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1832986527.570687</v>
+        <v>2427302715.216887</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09689371282078346</v>
+        <v>0.1321098433882728</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04263725538803457</v>
+        <v>0.03091257190172876</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2222348662.196648</v>
+        <v>1962840753.323651</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09597362933007617</v>
+        <v>0.1111201896927131</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03774630156314013</v>
+        <v>0.03660456600023571</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3055877802.644993</v>
+        <v>3607930738.158961</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1186188748026548</v>
+        <v>0.1824959993600146</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03888075509999739</v>
+        <v>0.04934265948166057</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>242</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2483723581.55749</v>
+        <v>2265424989.014366</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1497993271521954</v>
+        <v>0.1361866243243411</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02033123130284142</v>
+        <v>0.02317464744641208</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>993461248.1798841</v>
+        <v>1212227212.777339</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1851794256248784</v>
+        <v>0.1296929777306293</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03942978635911913</v>
+        <v>0.04235755401971155</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2536770557.99604</v>
+        <v>2940741296.455913</v>
       </c>
       <c r="F88" t="n">
-        <v>0.110821767599157</v>
+        <v>0.120521425048074</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03552797932981328</v>
+        <v>0.03700759226233725</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3580,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2356645467.12113</v>
+        <v>2617915761.654468</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1169117636312877</v>
+        <v>0.1508080872823414</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04078644917291056</v>
+        <v>0.02727613409712755</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="n">
+        <v>46.14639993377085</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1714698434.024282</v>
+        <v>1824753197.088147</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1227310288434412</v>
+        <v>0.08845070149319795</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04062120748680287</v>
+        <v>0.05597748355161261</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1305103167.178347</v>
+        <v>1780867225.879341</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1213434327155101</v>
+        <v>0.1696834973523675</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05080664011493171</v>
+        <v>0.0507350015185949</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2556128705.057278</v>
+        <v>2522483097.733692</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09765438674169921</v>
+        <v>0.104668741886896</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03284825597297152</v>
+        <v>0.03506826841210497</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4139124364.896107</v>
+        <v>3678743070.008389</v>
       </c>
       <c r="F93" t="n">
-        <v>0.118822500119739</v>
+        <v>0.1020947282223013</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04989066748872368</v>
+        <v>0.03731710846707077</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>107</v>
+      </c>
+      <c r="J93" t="n">
+        <v>242</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2509789746.454752</v>
+        <v>2254909524.697022</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030891293757759</v>
+        <v>0.141829554640117</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03376083997690132</v>
+        <v>0.02671800625407751</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2340690608.314568</v>
+        <v>3121613650.998584</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1349246961149888</v>
+        <v>0.1128398286931798</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04160478759952598</v>
+        <v>0.03636034854649679</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1931232615.134964</v>
+        <v>2016903935.429808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1261935651173778</v>
+        <v>0.1272740973600498</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03330050947068817</v>
+        <v>0.04353366440727464</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3621712007.292622</v>
+        <v>3232101346.656883</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1727174074575346</v>
+        <v>0.1424132047447548</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02731619422330144</v>
+        <v>0.02702298692879476</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>117</v>
+      </c>
+      <c r="J97" t="n">
+        <v>241</v>
+      </c>
+      <c r="K97" t="n">
+        <v>63.33576859710561</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2865645415.791749</v>
+        <v>2835570521.758667</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09051708615871482</v>
+        <v>0.1093774361568803</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03247782875055687</v>
+        <v>0.02138679545345969</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>239</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3192826424.063637</v>
+        <v>2272025507.737692</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1255503662891632</v>
+        <v>0.09676174836492524</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02248772040870885</v>
+        <v>0.03344895514492247</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3396500003.32973</v>
+        <v>3380893563.172801</v>
       </c>
       <c r="F100" t="n">
-        <v>0.178751523378099</v>
+        <v>0.1467680434285066</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02655827327486574</v>
+        <v>0.01804661307580068</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>101</v>
+      </c>
+      <c r="J100" t="n">
+        <v>241</v>
+      </c>
+      <c r="K100" t="n">
+        <v>67.38358593802801</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2658298988.770715</v>
+        <v>3327153721.182834</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1398158092102261</v>
+        <v>0.2168928874696908</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05373305791901973</v>
+        <v>0.0471272255198277</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
